--- a/BOM/Intergration/Book1.xlsx
+++ b/BOM/Intergration/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Best Nkhumeleni\Desktop\3088F_group22\BOM\Intergration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1884E924-3506-4D9A-A00D-98C6F2346F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02571A7-DA19-497B-B240-C230F02D5033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A0B92CE5-51D8-49E1-9FFB-1133C2CD1CD2}"/>
   </bookViews>
@@ -36,30 +36,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Number of component</t>
-  </si>
-  <si>
-    <t>component ID</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>2343U-240CNG1SNT01</t>
-  </si>
-  <si>
-    <t>DE_9_Recepticle</t>
-  </si>
-  <si>
-    <t>MCP4922T-E/SL</t>
-  </si>
-  <si>
-    <t>$2.86</t>
-  </si>
-  <si>
-    <t>$1,14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Foot print</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>AT24CS01-STUM</t>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/devicedoc/Atmel-8815-SEEPROM-AT24CS01-02-Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>$0,75</t>
+  </si>
+  <si>
+    <t>Gotop</t>
+  </si>
+  <si>
+    <t>Part number</t>
+  </si>
+  <si>
+    <t>C515654</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>DB25_Receptacle</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1912111437_Samtec-SSQ-120-03-F-S_C338701.pdf</t>
+  </si>
+  <si>
+    <t>$13.03</t>
+  </si>
+  <si>
+    <t>C338701</t>
+  </si>
+  <si>
+    <t>Samtec</t>
   </si>
 </sst>
 </file>
@@ -428,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625AFD07-5728-48E4-B829-CA77022AA407}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,46 +481,86 @@
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>4014</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOM/Intergration/Book1.xlsx
+++ b/BOM/Intergration/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Best Nkhumeleni\Desktop\3088F_group22\BOM\Intergration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Best Nkhumeleni\Desktop\3088F_group22\EEE3088F_group22_2023\BOM\Intergration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02571A7-DA19-497B-B240-C230F02D5033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED0FD0A-3761-4DCA-84AE-183D7D4C3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A0B92CE5-51D8-49E1-9FFB-1133C2CD1CD2}"/>
+    <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A0B92CE5-51D8-49E1-9FFB-1133C2CD1CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>AT24CS01-STUM</t>
   </si>
   <si>
-    <t>http://ww1.microchip.com/downloads/en/devicedoc/Atmel-8815-SEEPROM-AT24CS01-02-Datasheet.pdf</t>
-  </si>
-  <si>
     <t>$0,75</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Part number</t>
   </si>
   <si>
-    <t>C515654</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
@@ -99,13 +93,19 @@
   </si>
   <si>
     <t>Samtec</t>
+  </si>
+  <si>
+    <t>C616257</t>
+  </si>
+  <si>
+    <t>blob:https://jlcpcb.com/7b961e92-67de-4154-9c7a-ed699f8d1692</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,17 +152,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,7 +483,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -517,50 +530,53 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{81067D63-34CB-4789-BADB-7E29D4954A05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/BOM/Intergration/Book1.xlsx
+++ b/BOM/Intergration/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Best Nkhumeleni\Desktop\3088F_group22\EEE3088F_group22_2023\BOM\Intergration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED0FD0A-3761-4DCA-84AE-183D7D4C3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A1340-00FF-48F3-9D6E-9700D3652606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A0B92CE5-51D8-49E1-9FFB-1133C2CD1CD2}"/>
+    <workbookView xWindow="3492" yWindow="6012" windowWidth="17280" windowHeight="8880" xr2:uid="{A0B92CE5-51D8-49E1-9FFB-1133C2CD1CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Reference</t>
   </si>
@@ -99,6 +99,39 @@
   </si>
   <si>
     <t>blob:https://jlcpcb.com/7b961e92-67de-4154-9c7a-ed699f8d1692</t>
+  </si>
+  <si>
+    <t>R10,R11</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>blob:https://jlcpcb.com/9eb1dca7-9a1e-423c-8a87-6b9792687b82</t>
+  </si>
+  <si>
+    <t>$0,02</t>
+  </si>
+  <si>
+    <t>Uni-Royal</t>
+  </si>
+  <si>
+    <t>C1469</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>blob:https://jlcpcb.com/60697caf-9dda-46c0-bf12-5a2d92646010</t>
+  </si>
+  <si>
+    <t>$1,80</t>
+  </si>
+  <si>
+    <t>Dailywell</t>
+  </si>
+  <si>
+    <t>C496219</t>
   </si>
 </sst>
 </file>
@@ -156,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -165,6 +198,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625AFD07-5728-48E4-B829-CA77022AA407}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,11 +606,65 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{81067D63-34CB-4789-BADB-7E29D4954A05}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{4E1BA8C0-143C-416C-BBFD-A204A5C09C27}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{EDD387EE-B4D8-4768-B68A-3C9171F8EED0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>